--- a/trunk/EasiCab/Documents/Manage/EASiCab_PROJECT_MONITOR.xlsx
+++ b/trunk/EasiCab/Documents/Manage/EASiCab_PROJECT_MONITOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1485" windowWidth="14805" windowHeight="6630" tabRatio="913" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="1545" windowWidth="14805" windowHeight="6570" tabRatio="913" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INTRODUCTION" sheetId="1" r:id="rId1"/>
@@ -938,6 +938,30 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="Y2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rohit</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G5" authorId="0">
       <text>
         <r>
@@ -1012,6 +1036,428 @@
           </rPr>
           <t xml:space="preserve">
 2nd level review hours = First review hours /2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NITESH</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nitesh</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NITESH</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rohit</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rohit</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rohit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rohit</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rohit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nitesh</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nagarjun
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nagarjun
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nagarjun
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nagarjun
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nagarjun
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nagarjun
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Subhalaxmi
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Subhalaxmi
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Subhalaxmi
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Subhalaxmi
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Subhalaxmi
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NITESH</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NITESH</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NITESH</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1315,7 +1761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="224">
   <si>
     <t>S.NO</t>
   </si>
@@ -1356,12 +1802,6 @@
     <t>EmployeeName</t>
   </si>
   <si>
-    <t>Mamatha</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
     <t>METRICS</t>
   </si>
   <si>
@@ -1425,15 +1865,6 @@
     <t>FILE NAME</t>
   </si>
   <si>
-    <t>Project Kick Off</t>
-  </si>
-  <si>
-    <t>Punith</t>
-  </si>
-  <si>
-    <t>Abilash</t>
-  </si>
-  <si>
     <t>TEST CASE CREATION</t>
   </si>
   <si>
@@ -1450,12 +1881,6 @@
   </si>
   <si>
     <t xml:space="preserve">SYSTEM TESTING </t>
-  </si>
-  <si>
-    <t>Sai</t>
-  </si>
-  <si>
-    <t>Arun</t>
   </si>
   <si>
     <t>QUERY LIST</t>
@@ -1760,9 +2185,6 @@
     <t>Estimated for functionalities development (hrs)</t>
   </si>
   <si>
-    <t>Actual time for for functionalities development (hrs)</t>
-  </si>
-  <si>
     <t>Estimated time for integrating  functionalities  and UI development (hrs)</t>
   </si>
   <si>
@@ -1818,13 +2240,6 @@
   </si>
   <si>
     <t>[2].Text color/size/font mismatch.  Text of views mismatch.</t>
-  </si>
-  <si>
-    <t>Week No</t>
-  </si>
-  <si>
-    <t>16-August-2016
-to 21-August-2016</t>
   </si>
   <si>
     <t>ESTIMATED Time  Planning &amp; designining  [HRS] [HRS]</t>
@@ -1893,6 +2308,149 @@
   </si>
   <si>
     <t>Engineer 4</t>
+  </si>
+  <si>
+    <t>1-August-2016
+to 07-August-2016</t>
+  </si>
+  <si>
+    <t>8-August-2016
+to14-August-2016</t>
+  </si>
+  <si>
+    <t>15-August-2016
+to 21-August-2016</t>
+  </si>
+  <si>
+    <t>22-August-2016
+to 28-August-2016</t>
+  </si>
+  <si>
+    <t>29-August-2016
+to 04-Sept-2016</t>
+  </si>
+  <si>
+    <t>05-September-2016
+to 11-Sept-2016</t>
+  </si>
+  <si>
+    <t>12-September-2016
+to 18-Sept-2016</t>
+  </si>
+  <si>
+    <t>19-September-2016
+to 25-Sept-2016</t>
+  </si>
+  <si>
+    <t>Week 31</t>
+  </si>
+  <si>
+    <t>Week 34</t>
+  </si>
+  <si>
+    <t>Week 33</t>
+  </si>
+  <si>
+    <t>Week 32</t>
+  </si>
+  <si>
+    <t>Week 35</t>
+  </si>
+  <si>
+    <t>Week 36</t>
+  </si>
+  <si>
+    <t>Week 37</t>
+  </si>
+  <si>
+    <t>Week 38</t>
+  </si>
+  <si>
+    <t>Final Project Kick Off</t>
+  </si>
+  <si>
+    <t>Database document</t>
+  </si>
+  <si>
+    <t>UI/UX Flow</t>
+  </si>
+  <si>
+    <t>Project tracker sheet</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Reviews documents</t>
+  </si>
+  <si>
+    <t>Webservices  ESTIMATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webservices  ACTUAL </t>
+  </si>
+  <si>
+    <t>Actual time  for functionalities development (hrs)</t>
+  </si>
+  <si>
+    <t>Estimated for webservices supporting tools and languages &amp; enviornment setups</t>
+  </si>
+  <si>
+    <t>Actual for webservices supporting tools and languages &amp; enviornment setups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated for  Webservice learning and creation (samples) </t>
+  </si>
+  <si>
+    <t>Actual time for  Webservice learning and creation  (samples)</t>
+  </si>
+  <si>
+    <t>Estimated time for application based apis development (hrs)</t>
+  </si>
+  <si>
+    <t>Actual  time for application based apis development (hrs)</t>
+  </si>
+  <si>
+    <t>Estimated time for  internal  testing before submitting to review/integration(hrs)</t>
+  </si>
+  <si>
+    <t>Actual time for  internal  testing before submitting to review/integration (hrs)</t>
+  </si>
+  <si>
+    <t>Estimated review/internal rework hours</t>
+  </si>
+  <si>
+    <t>Actual review/internal  reworks hours</t>
+  </si>
+  <si>
+    <t>Task Owner</t>
+  </si>
+  <si>
+    <t>NITESH</t>
+  </si>
+  <si>
+    <t>ROHIT</t>
+  </si>
+  <si>
+    <t>NAGARJUN</t>
+  </si>
+  <si>
+    <t>SUBHALAXMI</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>CREATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVELOPMENT </t>
+  </si>
+  <si>
+    <t>Role.java</t>
+  </si>
+  <si>
+    <t>Splash.java &amp; Login.java</t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2653,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2210,6 +2768,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -2699,7 +3263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2707,9 +3271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2940,15 +3501,6 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2995,6 +3547,18 @@
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3070,18 +3634,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3103,6 +3667,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3145,18 +3739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3166,6 +3748,54 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3175,140 +3805,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3838,1374 +4359,1374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="121" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="121" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="203" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="112" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-    </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="112" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="112" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="203" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="203" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="203" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
     </row>
     <row r="21" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="203" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="203" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="203" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="204" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="124" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="204" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="204" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5242,8 +5763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5252,20 +5773,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="175" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
+      <c r="B1" s="169" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="159" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B4" s="159"/>
       <c r="C4" s="159"/>
@@ -5275,45 +5796,45 @@
       <c r="G4" s="159"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="40">
+      <c r="A5" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="39">
         <v>100</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>95</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>90</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>80</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>75</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="34">
+      <c r="A6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="33">
         <v>0</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>0</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <v>0</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="33">
         <v>0</v>
       </c>
       <c r="G6" s="3">
@@ -5321,312 +5842,315 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="33">
+        <v>1</v>
+      </c>
+      <c r="C8" s="33">
+        <v>5</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="34">
-        <v>0</v>
-      </c>
-      <c r="C7" s="34">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34">
-        <v>0</v>
-      </c>
-      <c r="E7" s="34">
-        <v>1</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="D9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="F9" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="34">
-        <v>1</v>
-      </c>
-      <c r="C8" s="34">
-        <v>5</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="G9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="B11" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="176" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="167" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="161" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="163"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="168"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="166"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="168"/>
+      <c r="B14" s="161" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="168"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="166"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="168"/>
+      <c r="B16" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="168"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="177"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="178" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="171"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="171"/>
+      <c r="B20" s="172" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="180"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="181"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="171"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="184"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="171"/>
+      <c r="B22" s="172" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="174"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="171"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="177"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="171"/>
+      <c r="B24" s="172" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="181"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="171"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="184"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="171" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="172" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="181"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="171"/>
+      <c r="B27" s="182"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="184"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="171"/>
+      <c r="B28" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="181"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="171"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="184"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="171"/>
+      <c r="B30" s="172" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="174"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="171"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="177"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="205" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="207"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="178"/>
-      <c r="B13" s="208"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="210"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="178"/>
-      <c r="B14" s="205" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="207"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="178"/>
-      <c r="B15" s="208"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="210"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="178"/>
-      <c r="B16" s="162" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="164"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="178"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="167"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="168" t="s">
+      <c r="B32" s="172" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="174"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="171"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="177"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="171"/>
+      <c r="B34" s="172" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="162" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="171"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="161"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="174"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="162" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="164"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="167"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
-      <c r="B24" s="162" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="171"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="161" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="162" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="171"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="174"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
-      <c r="B28" s="162" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="171"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="161"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="174"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
-      <c r="B30" s="162" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="164"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="167"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="161" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="162" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="164"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="161"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="167"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
-      <c r="B34" s="162" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="164"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="174"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="161"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="167"/>
+      <c r="A35" s="171"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B22:F23"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="B14:F15"/>
     <mergeCell ref="B12:F13"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="B1:I1"/>
@@ -5643,9 +6167,6 @@
     <mergeCell ref="B26:F27"/>
     <mergeCell ref="B28:F29"/>
     <mergeCell ref="B30:F31"/>
-    <mergeCell ref="B22:F23"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="B14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5664,35 +6185,35 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H1" s="179" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
+      <c r="H1" s="185" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="180" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="180"/>
+      <c r="B4" s="186" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="186"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="181" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="181"/>
+      <c r="B5" s="187" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="187"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="181" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="181"/>
+      <c r="B6" s="187" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="187"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="181" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="181"/>
+      <c r="B7" s="187" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5714,545 +6235,633 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T34"/>
+  <dimension ref="B1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="196" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
+      <c r="G1" s="200" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
     </row>
     <row r="3" spans="2:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B3" s="119" t="s">
-        <v>136</v>
+      <c r="B3" s="115" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="197" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="M5" s="197" t="s">
-        <v>151</v>
-      </c>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="198" t="s">
-        <v>152</v>
-      </c>
-      <c r="R5" s="199"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="200"/>
+      <c r="B5" s="199" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="M5" s="199" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="196" t="s">
+        <v>144</v>
+      </c>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="198"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M6" s="133"/>
       <c r="N6" s="133"/>
       <c r="O6" s="133"/>
-      <c r="P6" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="183"/>
-      <c r="S6" s="184"/>
-      <c r="T6" s="95" t="s">
-        <v>51</v>
+      <c r="P6" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="206"/>
+      <c r="T6" s="94" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="186" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="187" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="188" t="s">
-        <v>153</v>
-      </c>
-      <c r="N7" s="188"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="188" t="s">
-        <v>153</v>
-      </c>
-      <c r="R7" s="188"/>
-      <c r="S7" s="188"/>
-      <c r="T7" s="97"/>
+      <c r="B7" s="201" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="202" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="191" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="191" t="s">
+        <v>145</v>
+      </c>
+      <c r="R7" s="191"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="96"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="189" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="189" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" s="190"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="90"/>
-      <c r="M8" s="189" t="s">
-        <v>154</v>
-      </c>
-      <c r="N8" s="190"/>
-      <c r="O8" s="191"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="189" t="s">
-        <v>154</v>
-      </c>
-      <c r="R8" s="190"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="97"/>
+      <c r="B8" s="188" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="188" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="89"/>
+      <c r="M8" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="N8" s="189"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="R8" s="189"/>
+      <c r="S8" s="190"/>
+      <c r="T8" s="96"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="188" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="90"/>
+      <c r="B9" s="191" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="89"/>
       <c r="G9" s="192" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H9" s="193"/>
       <c r="I9" s="193"/>
       <c r="J9" s="194"/>
-      <c r="K9" s="90"/>
+      <c r="K9" s="89"/>
       <c r="M9" s="192" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="N9" s="193"/>
       <c r="O9" s="194"/>
-      <c r="P9" s="97"/>
+      <c r="P9" s="96"/>
       <c r="Q9" s="192" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R9" s="193"/>
       <c r="S9" s="194"/>
-      <c r="T9" s="96"/>
+      <c r="T9" s="95"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="188" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="188"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="188" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="92"/>
+      <c r="B10" s="191" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="191" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="91"/>
       <c r="M10" s="195" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N10" s="195"/>
       <c r="O10" s="195"/>
-      <c r="P10" s="97">
+      <c r="P10" s="96">
         <f>SUM(P7:P9)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="195" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="R10" s="195"/>
       <c r="S10" s="195"/>
-      <c r="T10" s="96"/>
+      <c r="T10" s="95"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="188" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="188" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="91"/>
+      <c r="B11" s="191" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="191"/>
+      <c r="D11" s="191"/>
+      <c r="E11" s="191"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="191" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="191"/>
+      <c r="I11" s="191"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="188" t="s">
+      <c r="B12" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="191"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="191"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="89"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="89"/>
+      <c r="M13" s="196" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="198"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="188" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="89"/>
+      <c r="P14" s="94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="188" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="90"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="188" t="s">
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="188" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="90"/>
-      <c r="M13" s="198" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="199"/>
-      <c r="O13" s="199"/>
-      <c r="P13" s="200"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="189" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="189" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="90"/>
-      <c r="P14" s="95" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="185" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="185" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="98"/>
-      <c r="M15" s="188" t="s">
-        <v>153</v>
-      </c>
-      <c r="N15" s="188"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="97"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="97"/>
+      <c r="M15" s="191" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" s="191"/>
+      <c r="O15" s="188"/>
+      <c r="P15" s="96"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="M16" s="188" t="s">
-        <v>153</v>
-      </c>
-      <c r="N16" s="188"/>
-      <c r="O16" s="189"/>
-      <c r="P16" s="97"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="M16" s="191" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" s="191"/>
+      <c r="O16" s="188"/>
+      <c r="P16" s="96"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
       <c r="M17" s="192" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="N17" s="193"/>
       <c r="O17" s="194"/>
-      <c r="P17" s="96"/>
+      <c r="P17" s="95"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="186" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="187" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="94" t="s">
-        <v>93</v>
+      <c r="B18" s="201" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="202" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="93" t="s">
+        <v>86</v>
       </c>
       <c r="M18" s="195" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N18" s="195"/>
       <c r="O18" s="195"/>
-      <c r="P18" s="97">
+      <c r="P18" s="96">
         <f>SUM(P15:P17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="192" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C19" s="193"/>
       <c r="D19" s="193"/>
       <c r="E19" s="194"/>
-      <c r="F19" s="90"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="192" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="H19" s="193"/>
       <c r="I19" s="193"/>
       <c r="J19" s="194"/>
-      <c r="K19" s="90"/>
+      <c r="K19" s="89"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="192" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C20" s="193"/>
       <c r="D20" s="193"/>
       <c r="E20" s="194"/>
-      <c r="F20" s="90"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="192" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H20" s="193"/>
       <c r="I20" s="193"/>
       <c r="J20" s="194"/>
-      <c r="K20" s="90"/>
+      <c r="K20" s="89"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="192" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C21" s="193"/>
       <c r="D21" s="193"/>
       <c r="E21" s="194"/>
-      <c r="F21" s="74"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="192" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H21" s="193"/>
       <c r="I21" s="193"/>
       <c r="J21" s="194"/>
-      <c r="K21" s="90"/>
+      <c r="K21" s="89"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="192" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C22" s="193"/>
       <c r="D22" s="193"/>
       <c r="E22" s="194"/>
-      <c r="F22" s="90"/>
+      <c r="F22" s="89"/>
       <c r="G22" s="192" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H22" s="193"/>
       <c r="I22" s="193"/>
       <c r="J22" s="194"/>
-      <c r="K22" s="90"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="192" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C23" s="193"/>
       <c r="D23" s="193"/>
       <c r="E23" s="194"/>
-      <c r="F23" s="90"/>
+      <c r="F23" s="89"/>
       <c r="G23" s="192" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H23" s="193"/>
       <c r="I23" s="193"/>
       <c r="J23" s="194"/>
-      <c r="K23" s="90"/>
+      <c r="K23" s="89"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="145"/>
       <c r="E24" s="145"/>
-      <c r="F24" s="72"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="192" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H24" s="193"/>
       <c r="I24" s="193"/>
       <c r="J24" s="194"/>
-      <c r="K24" s="90"/>
+      <c r="K24" s="89"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="185" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="185" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="185"/>
-      <c r="K25" s="99"/>
+      <c r="B25" s="203" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="203" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="98"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="201" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="201"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="202"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" s="212" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="192" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="193"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="192" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="193"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="211"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="192" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="193"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="192" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" s="193"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="114"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="192" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="192" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="114"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="192" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="192" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="193"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="114"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="202"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="202"/>
-      <c r="E32" s="202"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="201"/>
-      <c r="H32" s="201"/>
-      <c r="I32" s="201"/>
-      <c r="J32" s="201"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="38"/>
+      <c r="B32" s="192" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="193"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="192" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="114"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="201"/>
-      <c r="H33" s="201"/>
-      <c r="I33" s="201"/>
-      <c r="J33" s="201"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="38"/>
+      <c r="B33" s="192" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="193"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="192" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="193"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="37"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="192" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="37"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="203" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="203"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="203" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="203"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="203"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="G33:J33"/>
+  <mergeCells count="72">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:J31"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="G32:J32"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G30:J30"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="B15:E15"/>
@@ -6269,6 +6878,47 @@
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6280,75 +6930,75 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="47" customFormat="1" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="46" customFormat="1" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="83" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="84" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="84" t="s">
+      <c r="E2" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="84" t="s">
+      <c r="O2" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="86" t="s">
+      <c r="T2" s="85" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6362,16 +7012,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="17" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
@@ -6388,12 +7039,12 @@
     <col min="36" max="37" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="5.28515625" customWidth="1"/>
     <col min="39" max="40" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="46" width="9.140625" style="110"/>
+    <col min="41" max="46" width="9.140625" style="106"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -6408,23 +7059,23 @@
       <c r="L1" s="126"/>
       <c r="M1" s="126"/>
       <c r="N1" s="126"/>
-      <c r="O1" s="103"/>
+      <c r="O1" s="99"/>
       <c r="P1" s="131" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="131"/>
       <c r="R1" s="132"/>
-      <c r="S1" s="104"/>
+      <c r="S1" s="100"/>
       <c r="T1" s="133" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="U1" s="133"/>
       <c r="V1" s="133"/>
       <c r="W1" s="133"/>
       <c r="X1" s="133"/>
-      <c r="Y1" s="105"/>
+      <c r="Y1" s="101"/>
       <c r="Z1" s="133" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AA1" s="133"/>
       <c r="AB1" s="133"/>
@@ -6452,20 +7103,24 @@
       <c r="L2" s="128"/>
       <c r="M2" s="128"/>
       <c r="N2" s="128"/>
-      <c r="O2" s="106"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="133" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="133"/>
       <c r="R2" s="134"/>
-      <c r="S2" s="107"/>
+      <c r="S2" s="103"/>
       <c r="T2" s="133" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U2" s="133"/>
       <c r="V2" s="133"/>
       <c r="W2" s="133"/>
       <c r="X2" s="133"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" t="s">
+        <v>219</v>
+      </c>
       <c r="AO2"/>
       <c r="AP2"/>
       <c r="AQ2"/>
@@ -6488,15 +7143,15 @@
       <c r="L3" s="130"/>
       <c r="M3" s="130"/>
       <c r="N3" s="130"/>
-      <c r="O3" s="108"/>
+      <c r="O3" s="104"/>
       <c r="P3" s="135" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="135"/>
       <c r="R3" s="136"/>
-      <c r="S3" s="109"/>
+      <c r="S3" s="105"/>
       <c r="T3" s="133" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="U3" s="133"/>
       <c r="V3" s="133"/>
@@ -6517,171 +7172,171 @@
       <c r="AS4"/>
       <c r="AT4"/>
     </row>
-    <row r="5" spans="1:46" s="48" customFormat="1" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>34</v>
+    <row r="5" spans="1:46" s="47" customFormat="1" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="80">
+        <v>159</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="79">
         <v>42580</v>
       </c>
-      <c r="K5" s="81">
+      <c r="K5" s="80">
         <v>42581</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="80">
         <v>42582</v>
       </c>
-      <c r="M5" s="80">
+      <c r="M5" s="79">
         <v>42583</v>
       </c>
-      <c r="N5" s="80">
+      <c r="N5" s="79">
         <v>42584</v>
       </c>
-      <c r="O5" s="80">
+      <c r="O5" s="79">
         <v>42585</v>
       </c>
-      <c r="P5" s="80">
+      <c r="P5" s="79">
         <v>42586</v>
       </c>
-      <c r="Q5" s="80">
+      <c r="Q5" s="79">
         <v>42587</v>
       </c>
-      <c r="R5" s="81">
+      <c r="R5" s="80">
         <v>42588</v>
       </c>
-      <c r="S5" s="124">
+      <c r="S5" s="120">
         <v>42589</v>
       </c>
-      <c r="T5" s="80">
+      <c r="T5" s="79">
         <v>42590</v>
       </c>
-      <c r="U5" s="80">
+      <c r="U5" s="79">
         <v>42591</v>
       </c>
-      <c r="V5" s="80">
+      <c r="V5" s="79">
         <v>42592</v>
       </c>
-      <c r="W5" s="80">
+      <c r="W5" s="79">
         <v>42593</v>
       </c>
-      <c r="X5" s="80">
+      <c r="X5" s="79">
         <v>42594</v>
       </c>
-      <c r="Y5" s="81">
+      <c r="Y5" s="80">
         <v>42595</v>
       </c>
-      <c r="Z5" s="81">
+      <c r="Z5" s="80">
         <v>42596</v>
       </c>
-      <c r="AA5" s="81">
+      <c r="AA5" s="80">
         <v>42597</v>
       </c>
-      <c r="AB5" s="80">
+      <c r="AB5" s="79">
         <v>42598</v>
       </c>
-      <c r="AC5" s="80">
+      <c r="AC5" s="79">
         <v>42599</v>
       </c>
-      <c r="AD5" s="80">
+      <c r="AD5" s="79">
         <v>42600</v>
       </c>
-      <c r="AE5" s="80">
+      <c r="AE5" s="79">
         <v>42601</v>
       </c>
-      <c r="AF5" s="81">
+      <c r="AF5" s="80">
         <v>42602</v>
       </c>
-      <c r="AG5" s="81">
+      <c r="AG5" s="80">
         <v>42603</v>
       </c>
-      <c r="AH5" s="80">
+      <c r="AH5" s="79">
         <v>42604</v>
       </c>
-      <c r="AI5" s="80">
+      <c r="AI5" s="79">
         <v>42605</v>
       </c>
-      <c r="AJ5" s="80">
+      <c r="AJ5" s="79">
         <v>42606</v>
       </c>
-      <c r="AK5" s="80">
+      <c r="AK5" s="79">
         <v>42607</v>
       </c>
-      <c r="AL5" s="80">
+      <c r="AL5" s="79">
         <v>42608</v>
       </c>
-      <c r="AM5" s="81">
+      <c r="AM5" s="80">
         <v>42609</v>
       </c>
-      <c r="AN5" s="81">
+      <c r="AN5" s="80">
         <v>42610</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>35</v>
+      <c r="A6" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="64"/>
-      <c r="AM6" s="64"/>
-      <c r="AN6" s="64"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
       <c r="AO6"/>
       <c r="AP6"/>
       <c r="AQ6"/>
@@ -6690,7 +7345,9 @@
       <c r="AT6"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="21" t="s">
+        <v>195</v>
+      </c>
       <c r="AO7"/>
       <c r="AP7"/>
       <c r="AQ7"/>
@@ -6699,7 +7356,18 @@
       <c r="AT7"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24</v>
+      </c>
+      <c r="F8" s="215" t="s">
+        <v>215</v>
+      </c>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
       <c r="AO8"/>
       <c r="AP8"/>
       <c r="AQ8"/>
@@ -6708,7 +7376,21 @@
       <c r="AT8"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="1">
+        <v>48</v>
+      </c>
+      <c r="F9" s="212" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="T9" s="100"/>
       <c r="AO9"/>
       <c r="AP9"/>
       <c r="AQ9"/>
@@ -6717,7 +7399,21 @@
       <c r="AT9"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="1">
+        <v>48</v>
+      </c>
+      <c r="F10" s="212" t="s">
+        <v>217</v>
+      </c>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="T10" s="100"/>
       <c r="AO10"/>
       <c r="AP10"/>
       <c r="AQ10"/>
@@ -6726,7 +7422,19 @@
       <c r="AT10"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="213">
+        <v>32</v>
+      </c>
+      <c r="F11" s="212" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
       <c r="AO11"/>
       <c r="AP11"/>
       <c r="AQ11"/>
@@ -6734,17 +7442,22 @@
       <c r="AS11"/>
       <c r="AT11"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="AO12"/>
-      <c r="AP12"/>
-      <c r="AQ12"/>
-      <c r="AR12"/>
-      <c r="AS12"/>
-      <c r="AT12"/>
+    <row r="12" spans="1:46" s="209" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="208" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="212" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="100"/>
       <c r="AO13"/>
       <c r="AP13"/>
       <c r="AQ13"/>
@@ -6753,7 +7466,15 @@
       <c r="AT13"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="212" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
       <c r="AO14"/>
       <c r="AP14"/>
       <c r="AQ14"/>
@@ -6762,7 +7483,7 @@
       <c r="AT14"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="AO15"/>
       <c r="AP15"/>
       <c r="AQ15"/>
@@ -6771,7 +7492,9 @@
       <c r="AT15"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="AO16"/>
       <c r="AP16"/>
       <c r="AQ16"/>
@@ -6780,7 +7503,16 @@
       <c r="AT16"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="212" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="100"/>
       <c r="AO17"/>
       <c r="AP17"/>
       <c r="AQ17"/>
@@ -6789,7 +7521,17 @@
       <c r="AT17"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="F18" s="212" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="100"/>
+      <c r="T18" s="100"/>
       <c r="AO18"/>
       <c r="AP18"/>
       <c r="AQ18"/>
@@ -6798,7 +7540,7 @@
       <c r="AT18"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="AO19"/>
       <c r="AP19"/>
       <c r="AQ19"/>
@@ -6807,7 +7549,7 @@
       <c r="AT19"/>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="AO20"/>
       <c r="AP20"/>
       <c r="AQ20"/>
@@ -6816,7 +7558,7 @@
       <c r="AT20"/>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="AO21"/>
       <c r="AP21"/>
       <c r="AQ21"/>
@@ -6825,7 +7567,7 @@
       <c r="AT21"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="AO22"/>
       <c r="AP22"/>
       <c r="AQ22"/>
@@ -6834,7 +7576,7 @@
       <c r="AT22"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="AO23"/>
       <c r="AP23"/>
       <c r="AQ23"/>
@@ -6843,7 +7585,7 @@
       <c r="AT23"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="AO24"/>
       <c r="AP24"/>
       <c r="AQ24"/>
@@ -6852,7 +7594,7 @@
       <c r="AT24"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="AO25"/>
       <c r="AP25"/>
       <c r="AQ25"/>
@@ -6861,7 +7603,7 @@
       <c r="AT25"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="AO26"/>
       <c r="AP26"/>
       <c r="AQ26"/>
@@ -6870,7 +7612,7 @@
       <c r="AT26"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="AO27"/>
       <c r="AP27"/>
       <c r="AQ27"/>
@@ -6879,7 +7621,7 @@
       <c r="AT27"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="AO28"/>
       <c r="AP28"/>
       <c r="AQ28"/>
@@ -6888,7 +7630,7 @@
       <c r="AT28"/>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="AO29"/>
       <c r="AP29"/>
       <c r="AQ29"/>
@@ -6897,7 +7639,7 @@
       <c r="AT29"/>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="AO30"/>
       <c r="AP30"/>
       <c r="AQ30"/>
@@ -6906,7 +7648,7 @@
       <c r="AT30"/>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="AO31"/>
       <c r="AP31"/>
       <c r="AQ31"/>
@@ -6915,7 +7657,7 @@
       <c r="AT31"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="AO32"/>
       <c r="AP32"/>
       <c r="AQ32"/>
@@ -6924,7 +7666,7 @@
       <c r="AT32"/>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="18"/>
       <c r="AO33"/>
       <c r="AP33"/>
       <c r="AQ33"/>
@@ -6933,7 +7675,7 @@
       <c r="AT33"/>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="18"/>
       <c r="AO34"/>
       <c r="AP34"/>
       <c r="AQ34"/>
@@ -6942,7 +7684,7 @@
       <c r="AT34"/>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="AO35"/>
       <c r="AP35"/>
       <c r="AQ35"/>
@@ -6951,7 +7693,7 @@
       <c r="AT35"/>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="17"/>
       <c r="AO36"/>
       <c r="AP36"/>
       <c r="AQ36"/>
@@ -6960,7 +7702,7 @@
       <c r="AT36"/>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="AO37"/>
       <c r="AP37"/>
       <c r="AQ37"/>
@@ -6969,7 +7711,7 @@
       <c r="AT37"/>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="17"/>
       <c r="AO38"/>
       <c r="AP38"/>
       <c r="AQ38"/>
@@ -6978,7 +7720,7 @@
       <c r="AT38"/>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="AO39"/>
       <c r="AP39"/>
       <c r="AQ39"/>
@@ -6987,7 +7729,7 @@
       <c r="AT39"/>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="18"/>
       <c r="AO40"/>
       <c r="AP40"/>
       <c r="AQ40"/>
@@ -6996,7 +7738,7 @@
       <c r="AT40"/>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
       <c r="AO41"/>
       <c r="AP41"/>
       <c r="AQ41"/>
@@ -7005,7 +7747,7 @@
       <c r="AT41"/>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="18"/>
       <c r="AO42"/>
       <c r="AP42"/>
       <c r="AQ42"/>
@@ -7014,7 +7756,7 @@
       <c r="AT42"/>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="18"/>
       <c r="AO43"/>
       <c r="AP43"/>
       <c r="AQ43"/>
@@ -7023,7 +7765,7 @@
       <c r="AT43"/>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="17"/>
       <c r="AO44"/>
       <c r="AP44"/>
       <c r="AQ44"/>
@@ -7032,7 +7774,7 @@
       <c r="AT44"/>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="18"/>
       <c r="AO45"/>
       <c r="AP45"/>
       <c r="AQ45"/>
@@ -7041,7 +7783,7 @@
       <c r="AT45"/>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="AO46"/>
       <c r="AP46"/>
       <c r="AQ46"/>
@@ -7050,7 +7792,7 @@
       <c r="AT46"/>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="18"/>
       <c r="AO47"/>
       <c r="AP47"/>
       <c r="AQ47"/>
@@ -7059,7 +7801,7 @@
       <c r="AT47"/>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="18"/>
       <c r="AO48"/>
       <c r="AP48"/>
       <c r="AQ48"/>
@@ -7068,7 +7810,7 @@
       <c r="AT48"/>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="18"/>
       <c r="AO49"/>
       <c r="AP49"/>
       <c r="AQ49"/>
@@ -7077,7 +7819,7 @@
       <c r="AT49"/>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="18"/>
       <c r="AO50"/>
       <c r="AP50"/>
       <c r="AQ50"/>
@@ -7086,7 +7828,7 @@
       <c r="AT50"/>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="17"/>
       <c r="AO51"/>
       <c r="AP51"/>
       <c r="AQ51"/>
@@ -7095,7 +7837,7 @@
       <c r="AT51"/>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="18"/>
       <c r="AO52"/>
       <c r="AP52"/>
       <c r="AQ52"/>
@@ -7104,7 +7846,7 @@
       <c r="AT52"/>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
       <c r="AO53"/>
       <c r="AP53"/>
       <c r="AQ53"/>
@@ -7113,7 +7855,7 @@
       <c r="AT53"/>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
+      <c r="A54" s="18"/>
       <c r="AO54"/>
       <c r="AP54"/>
       <c r="AQ54"/>
@@ -7122,7 +7864,7 @@
       <c r="AT54"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
+      <c r="A55" s="18"/>
       <c r="AO55"/>
       <c r="AP55"/>
       <c r="AQ55"/>
@@ -7131,7 +7873,7 @@
       <c r="AT55"/>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
+      <c r="A56" s="17"/>
       <c r="AO56"/>
       <c r="AP56"/>
       <c r="AQ56"/>
@@ -7140,7 +7882,7 @@
       <c r="AT56"/>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="A57" s="18"/>
       <c r="AO57"/>
       <c r="AP57"/>
       <c r="AQ57"/>
@@ -7149,7 +7891,7 @@
       <c r="AT57"/>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
+      <c r="A58" s="18"/>
       <c r="AO58"/>
       <c r="AP58"/>
       <c r="AQ58"/>
@@ -7158,7 +7900,7 @@
       <c r="AT58"/>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
+      <c r="A59" s="18"/>
       <c r="AO59"/>
       <c r="AP59"/>
       <c r="AQ59"/>
@@ -7167,7 +7909,7 @@
       <c r="AT59"/>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="AO60"/>
       <c r="AP60"/>
       <c r="AQ60"/>
@@ -7176,7 +7918,7 @@
       <c r="AT60"/>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="A61" s="18"/>
       <c r="AO61"/>
       <c r="AP61"/>
       <c r="AQ61"/>
@@ -7185,7 +7927,7 @@
       <c r="AT61"/>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+      <c r="A62" s="18"/>
       <c r="AO62"/>
       <c r="AP62"/>
       <c r="AQ62"/>
@@ -7194,7 +7936,7 @@
       <c r="AT62"/>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
+      <c r="A63" s="18"/>
       <c r="AO63"/>
       <c r="AP63"/>
       <c r="AQ63"/>
@@ -7203,7 +7945,7 @@
       <c r="AT63"/>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
+      <c r="A64" s="18"/>
       <c r="AO64"/>
       <c r="AP64"/>
       <c r="AQ64"/>
@@ -7212,7 +7954,7 @@
       <c r="AT64"/>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
+      <c r="A65" s="18"/>
       <c r="AO65"/>
       <c r="AP65"/>
       <c r="AQ65"/>
@@ -7221,7 +7963,7 @@
       <c r="AT65"/>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
+      <c r="A66" s="17"/>
       <c r="AO66"/>
       <c r="AP66"/>
       <c r="AQ66"/>
@@ -7230,7 +7972,7 @@
       <c r="AT66"/>
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
+      <c r="A67" s="17"/>
       <c r="AO67"/>
       <c r="AP67"/>
       <c r="AQ67"/>
@@ -7239,7 +7981,7 @@
       <c r="AT67"/>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
+      <c r="A68" s="17"/>
       <c r="AO68"/>
       <c r="AP68"/>
       <c r="AQ68"/>
@@ -7248,7 +7990,7 @@
       <c r="AT68"/>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
+      <c r="A69" s="17"/>
       <c r="AO69"/>
       <c r="AP69"/>
       <c r="AQ69"/>
@@ -7257,7 +7999,7 @@
       <c r="AT69"/>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
+      <c r="A70" s="17"/>
       <c r="AO70"/>
       <c r="AP70"/>
       <c r="AQ70"/>
@@ -7266,7 +8008,7 @@
       <c r="AT70"/>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
+      <c r="A71" s="17"/>
       <c r="AO71"/>
       <c r="AP71"/>
       <c r="AQ71"/>
@@ -7275,7 +8017,7 @@
       <c r="AT71"/>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
+      <c r="A72" s="17"/>
       <c r="AO72"/>
       <c r="AP72"/>
       <c r="AQ72"/>
@@ -7284,7 +8026,7 @@
       <c r="AT72"/>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
+      <c r="A73" s="17"/>
       <c r="AO73"/>
       <c r="AP73"/>
       <c r="AQ73"/>
@@ -7293,7 +8035,7 @@
       <c r="AT73"/>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
+      <c r="A74" s="17"/>
       <c r="AO74"/>
       <c r="AP74"/>
       <c r="AQ74"/>
@@ -7302,7 +8044,7 @@
       <c r="AT74"/>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
+      <c r="A75" s="17"/>
       <c r="AO75"/>
       <c r="AP75"/>
       <c r="AQ75"/>
@@ -7311,7 +8053,7 @@
       <c r="AT75"/>
     </row>
     <row r="76" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
+      <c r="A76" s="17"/>
       <c r="AO76"/>
       <c r="AP76"/>
       <c r="AQ76"/>
@@ -7320,7 +8062,7 @@
       <c r="AT76"/>
     </row>
     <row r="77" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
+      <c r="A77" s="17"/>
       <c r="AO77"/>
       <c r="AP77"/>
       <c r="AQ77"/>
@@ -7329,7 +8071,7 @@
       <c r="AT77"/>
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
+      <c r="A78" s="17"/>
       <c r="AO78"/>
       <c r="AP78"/>
       <c r="AQ78"/>
@@ -7338,7 +8080,7 @@
       <c r="AT78"/>
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
+      <c r="A79" s="17"/>
       <c r="AO79"/>
       <c r="AP79"/>
       <c r="AQ79"/>
@@ -7347,7 +8089,7 @@
       <c r="AT79"/>
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
+      <c r="A80" s="17"/>
       <c r="AO80"/>
       <c r="AP80"/>
       <c r="AQ80"/>
@@ -7356,7 +8098,7 @@
       <c r="AT80"/>
     </row>
     <row r="81" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
+      <c r="A81" s="17"/>
       <c r="AO81"/>
       <c r="AP81"/>
       <c r="AQ81"/>
@@ -7365,7 +8107,7 @@
       <c r="AT81"/>
     </row>
     <row r="82" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
+      <c r="A82" s="17"/>
       <c r="AO82"/>
       <c r="AP82"/>
       <c r="AQ82"/>
@@ -7374,7 +8116,7 @@
       <c r="AT82"/>
     </row>
     <row r="83" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
+      <c r="A83" s="17"/>
       <c r="AO83"/>
       <c r="AP83"/>
       <c r="AQ83"/>
@@ -7383,7 +8125,7 @@
       <c r="AT83"/>
     </row>
     <row r="84" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
+      <c r="A84" s="17"/>
       <c r="AO84"/>
       <c r="AP84"/>
       <c r="AQ84"/>
@@ -7392,7 +8134,7 @@
       <c r="AT84"/>
     </row>
     <row r="85" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
+      <c r="A85" s="17"/>
       <c r="AO85"/>
       <c r="AP85"/>
       <c r="AQ85"/>
@@ -7401,7 +8143,7 @@
       <c r="AT85"/>
     </row>
     <row r="86" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
+      <c r="A86" s="17"/>
       <c r="AO86"/>
       <c r="AP86"/>
       <c r="AQ86"/>
@@ -7410,7 +8152,7 @@
       <c r="AT86"/>
     </row>
     <row r="87" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
+      <c r="A87" s="17"/>
       <c r="AO87"/>
       <c r="AP87"/>
       <c r="AQ87"/>
@@ -7419,7 +8161,7 @@
       <c r="AT87"/>
     </row>
     <row r="88" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
+      <c r="A88" s="17"/>
       <c r="AO88"/>
       <c r="AP88"/>
       <c r="AQ88"/>
@@ -7428,7 +8170,7 @@
       <c r="AT88"/>
     </row>
     <row r="89" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
+      <c r="A89" s="17"/>
       <c r="AO89"/>
       <c r="AP89"/>
       <c r="AQ89"/>
@@ -7437,7 +8179,7 @@
       <c r="AT89"/>
     </row>
     <row r="90" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
+      <c r="A90" s="17"/>
       <c r="AO90"/>
       <c r="AP90"/>
       <c r="AQ90"/>
@@ -7446,7 +8188,7 @@
       <c r="AT90"/>
     </row>
     <row r="91" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
+      <c r="A91" s="17"/>
       <c r="AO91"/>
       <c r="AP91"/>
       <c r="AQ91"/>
@@ -7455,7 +8197,7 @@
       <c r="AT91"/>
     </row>
     <row r="92" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
+      <c r="A92" s="17"/>
       <c r="AO92"/>
       <c r="AP92"/>
       <c r="AQ92"/>
@@ -7464,7 +8206,7 @@
       <c r="AT92"/>
     </row>
     <row r="93" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A93" s="18"/>
+      <c r="A93" s="17"/>
       <c r="AO93"/>
       <c r="AP93"/>
       <c r="AQ93"/>
@@ -7473,7 +8215,7 @@
       <c r="AT93"/>
     </row>
     <row r="94" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
+      <c r="A94" s="17"/>
       <c r="AO94"/>
       <c r="AP94"/>
       <c r="AQ94"/>
@@ -7482,7 +8224,7 @@
       <c r="AT94"/>
     </row>
     <row r="95" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
+      <c r="A95" s="17"/>
       <c r="AO95"/>
       <c r="AP95"/>
       <c r="AQ95"/>
@@ -7491,7 +8233,7 @@
       <c r="AT95"/>
     </row>
     <row r="96" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
+      <c r="A96" s="17"/>
       <c r="AO96"/>
       <c r="AP96"/>
       <c r="AQ96"/>
@@ -7500,7 +8242,7 @@
       <c r="AT96"/>
     </row>
     <row r="97" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
+      <c r="A97" s="17"/>
       <c r="AO97"/>
       <c r="AP97"/>
       <c r="AQ97"/>
@@ -7509,7 +8251,7 @@
       <c r="AT97"/>
     </row>
     <row r="98" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
+      <c r="A98" s="17"/>
       <c r="AO98"/>
       <c r="AP98"/>
       <c r="AQ98"/>
@@ -7518,7 +8260,7 @@
       <c r="AT98"/>
     </row>
     <row r="99" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
+      <c r="A99" s="17"/>
       <c r="AO99"/>
       <c r="AP99"/>
       <c r="AQ99"/>
@@ -7527,7 +8269,7 @@
       <c r="AT99"/>
     </row>
     <row r="100" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
+      <c r="A100" s="17"/>
       <c r="AO100"/>
       <c r="AP100"/>
       <c r="AQ100"/>
@@ -7536,7 +8278,7 @@
       <c r="AT100"/>
     </row>
     <row r="101" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
+      <c r="A101" s="17"/>
       <c r="AO101"/>
       <c r="AP101"/>
       <c r="AQ101"/>
@@ -7545,7 +8287,7 @@
       <c r="AT101"/>
     </row>
     <row r="102" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
+      <c r="A102" s="17"/>
       <c r="AO102"/>
       <c r="AP102"/>
       <c r="AQ102"/>
@@ -7554,7 +8296,7 @@
       <c r="AT102"/>
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
+      <c r="A103" s="17"/>
       <c r="AO103"/>
       <c r="AP103"/>
       <c r="AQ103"/>
@@ -7563,7 +8305,7 @@
       <c r="AT103"/>
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
+      <c r="A104" s="17"/>
       <c r="AO104"/>
       <c r="AP104"/>
       <c r="AQ104"/>
@@ -7573,13 +8315,10 @@
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108"/>
-      <c r="B108" t="s">
-        <v>37</v>
+      <c r="B108" s="1">
+        <v>4</v>
       </c>
       <c r="C108" s="1">
-        <v>4</v>
-      </c>
-      <c r="D108" s="1">
         <v>108.75</v>
       </c>
       <c r="AO108"/>
@@ -7591,13 +8330,10 @@
     </row>
     <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109"/>
-      <c r="B109" t="s">
-        <v>45</v>
+      <c r="B109" s="1">
+        <v>4</v>
       </c>
       <c r="C109" s="1">
-        <v>4</v>
-      </c>
-      <c r="D109" s="1">
         <v>32.5</v>
       </c>
       <c r="AO109"/>
@@ -7609,13 +8345,10 @@
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110"/>
-      <c r="B110" t="s">
-        <v>12</v>
+      <c r="B110" s="1">
+        <v>3</v>
       </c>
       <c r="C110" s="1">
-        <v>3</v>
-      </c>
-      <c r="D110" s="1">
         <v>42</v>
       </c>
       <c r="AO110"/>
@@ -7627,13 +8360,10 @@
     </row>
     <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111"/>
-      <c r="B111" t="s">
-        <v>36</v>
+      <c r="B111" s="1">
+        <v>4</v>
       </c>
       <c r="C111" s="1">
-        <v>4</v>
-      </c>
-      <c r="D111" s="1">
         <f>98+17</f>
         <v>115</v>
       </c>
@@ -7646,13 +8376,10 @@
     </row>
     <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112"/>
-      <c r="B112" t="s">
-        <v>13</v>
+      <c r="B112" s="1">
+        <v>4</v>
       </c>
       <c r="C112" s="1">
-        <v>4</v>
-      </c>
-      <c r="D112" s="1">
         <v>92</v>
       </c>
       <c r="AO112"/>
@@ -7664,13 +8391,10 @@
     </row>
     <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113"/>
-      <c r="B113" t="s">
-        <v>44</v>
+      <c r="B113" s="1">
+        <v>3</v>
       </c>
       <c r="C113" s="1">
-        <v>3</v>
-      </c>
-      <c r="D113" s="1">
         <v>55</v>
       </c>
       <c r="AO113"/>
@@ -7692,7 +8416,8 @@
     <mergeCell ref="T3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7700,35 +8425,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13" style="46" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="46" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" style="57" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="46" customWidth="1"/>
-    <col min="12" max="18" width="4.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="46" customWidth="1"/>
-    <col min="20" max="26" width="4.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="4.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="4.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.28515625" style="46" customWidth="1"/>
-    <col min="36" max="40" width="4.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="41" max="47" width="9.140625" style="75"/>
-    <col min="48" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="36.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13" style="45" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="45" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" style="56" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="45" customWidth="1"/>
+    <col min="12" max="18" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="45" customWidth="1"/>
+    <col min="20" max="26" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.28515625" style="45" customWidth="1"/>
+    <col min="36" max="40" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="41" max="47" width="9.140625" style="74"/>
+    <col min="48" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -7740,35 +8465,35 @@
       <c r="I1" s="138"/>
       <c r="J1" s="138"/>
       <c r="K1" s="138"/>
-      <c r="L1" s="49"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="143" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N1" s="143"/>
       <c r="O1" s="144"/>
-      <c r="P1" s="50"/>
+      <c r="P1" s="49"/>
       <c r="Q1" s="145" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R1" s="145"/>
       <c r="S1" s="145"/>
       <c r="T1" s="145"/>
       <c r="U1" s="145"/>
-      <c r="V1" s="51"/>
+      <c r="V1" s="50"/>
       <c r="W1" s="145" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="X1" s="145"/>
       <c r="Y1" s="145"/>
       <c r="Z1" s="145"/>
       <c r="AA1" s="145"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
     </row>
     <row r="2" spans="1:47" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="139"/>
@@ -7782,35 +8507,35 @@
       <c r="I2" s="140"/>
       <c r="J2" s="140"/>
       <c r="K2" s="140"/>
-      <c r="L2" s="52"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="145" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N2" s="145"/>
       <c r="O2" s="146"/>
-      <c r="P2" s="53"/>
+      <c r="P2" s="52"/>
       <c r="Q2" s="145" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R2" s="145"/>
       <c r="S2" s="145"/>
       <c r="T2" s="145"/>
       <c r="U2" s="145"/>
-      <c r="V2" s="54"/>
+      <c r="V2" s="53"/>
       <c r="W2" s="145" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="X2" s="145"/>
       <c r="Y2" s="145"/>
       <c r="Z2" s="145"/>
       <c r="AA2" s="145"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
     </row>
     <row r="3" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="141"/>
@@ -7824,368 +8549,368 @@
       <c r="I3" s="142"/>
       <c r="J3" s="142"/>
       <c r="K3" s="142"/>
-      <c r="L3" s="55"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="147" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N3" s="147"/>
       <c r="O3" s="148"/>
-      <c r="P3" s="56"/>
+      <c r="P3" s="55"/>
       <c r="Q3" s="145" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R3" s="145"/>
       <c r="S3" s="145"/>
       <c r="T3" s="145"/>
       <c r="U3" s="145"/>
-      <c r="V3" s="89"/>
+      <c r="V3" s="88"/>
       <c r="W3" s="145" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="X3" s="145"/>
       <c r="Y3" s="145"/>
       <c r="Z3" s="145"/>
       <c r="AA3" s="145"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
     </row>
     <row r="4" spans="1:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-    </row>
-    <row r="5" spans="1:47" s="48" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="80">
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+    </row>
+    <row r="5" spans="1:47" s="47" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="79">
         <v>42580</v>
       </c>
-      <c r="K5" s="81">
+      <c r="K5" s="80">
         <v>42581</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="80">
         <v>42582</v>
       </c>
-      <c r="M5" s="80">
+      <c r="M5" s="79">
         <v>42583</v>
       </c>
-      <c r="N5" s="80">
+      <c r="N5" s="79">
         <v>42584</v>
       </c>
-      <c r="O5" s="80">
+      <c r="O5" s="79">
         <v>42585</v>
       </c>
-      <c r="P5" s="80">
+      <c r="P5" s="79">
         <v>42586</v>
       </c>
-      <c r="Q5" s="80">
+      <c r="Q5" s="79">
         <v>42587</v>
       </c>
-      <c r="R5" s="81">
+      <c r="R5" s="80">
         <v>42588</v>
       </c>
-      <c r="S5" s="124">
+      <c r="S5" s="120">
         <v>42589</v>
       </c>
-      <c r="T5" s="80">
+      <c r="T5" s="79">
         <v>42590</v>
       </c>
-      <c r="U5" s="80">
+      <c r="U5" s="79">
         <v>42591</v>
       </c>
-      <c r="V5" s="80">
+      <c r="V5" s="79">
         <v>42592</v>
       </c>
-      <c r="W5" s="80">
+      <c r="W5" s="79">
         <v>42593</v>
       </c>
-      <c r="X5" s="80">
+      <c r="X5" s="79">
         <v>42594</v>
       </c>
-      <c r="Y5" s="81">
+      <c r="Y5" s="80">
         <v>42595</v>
       </c>
-      <c r="Z5" s="81">
+      <c r="Z5" s="80">
         <v>42596</v>
       </c>
-      <c r="AA5" s="81">
+      <c r="AA5" s="80">
         <v>42597</v>
       </c>
-      <c r="AB5" s="80">
+      <c r="AB5" s="79">
         <v>42598</v>
       </c>
-      <c r="AC5" s="80">
+      <c r="AC5" s="79">
         <v>42599</v>
       </c>
-      <c r="AD5" s="80">
+      <c r="AD5" s="79">
         <v>42600</v>
       </c>
-      <c r="AE5" s="80">
+      <c r="AE5" s="79">
         <v>42601</v>
       </c>
-      <c r="AF5" s="81">
+      <c r="AF5" s="80">
         <v>42602</v>
       </c>
-      <c r="AG5" s="81">
+      <c r="AG5" s="80">
         <v>42603</v>
       </c>
-      <c r="AH5" s="80">
+      <c r="AH5" s="79">
         <v>42604</v>
       </c>
-      <c r="AI5" s="80">
+      <c r="AI5" s="79">
         <v>42605</v>
       </c>
-      <c r="AJ5" s="80">
+      <c r="AJ5" s="79">
         <v>42606</v>
       </c>
-      <c r="AK5" s="80">
+      <c r="AK5" s="79">
         <v>42607</v>
       </c>
-      <c r="AL5" s="80">
+      <c r="AL5" s="79">
         <v>42608</v>
       </c>
-      <c r="AM5" s="81">
+      <c r="AM5" s="80">
         <v>42609</v>
       </c>
-      <c r="AN5" s="81">
+      <c r="AN5" s="80">
         <v>42610</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="70"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="64"/>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="65"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="46"/>
+      <c r="A6" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="64"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
     </row>
     <row r="8" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
-      <c r="AT8" s="46"/>
-      <c r="AU8" s="46"/>
+      <c r="A8" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
     </row>
     <row r="9" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
-      <c r="AL9" s="70"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
+      <c r="A9" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
+      <c r="AL9" s="69"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8212,202 +8937,225 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A1" s="149" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="122" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="C1" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="207" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="207" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="207" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="207" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="207" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="207" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="149"/>
       <c r="B2" s="149"/>
-      <c r="C2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="116" t="s">
-        <v>166</v>
+      <c r="C2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="112" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" s="112" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="A3" s="42">
         <v>4335</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>121</v>
+      <c r="B3" s="42" t="s">
+        <v>114</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>4463</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="B4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="A5" s="19">
+        <v>5030</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="150" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>86</v>
+      <c r="A8" s="152" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="153"/>
+      <c r="C8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="A9" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="26">
         <f>SUM(C3:O3)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="88" t="s">
-        <v>85</v>
+      <c r="E9" s="87" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="A10" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="26">
         <f>SUM(C4:O4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="27">
-        <f>SUM(C5:O5)</f>
+      <c r="A11" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="26">
+        <f>SUM(O5:CC5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="152" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="30" t="e">
+      <c r="A13" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="151"/>
+      <c r="C13" s="29" t="e">
         <f>C10+C11+D16C13</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>51</v>
+      <c r="A15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="A16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="19">
         <f>SUM(C9,C10,C11)</f>
         <v>0</v>
       </c>
@@ -8420,28 +9168,28 @@
     <mergeCell ref="A8:B8"/>
   </mergeCells>
   <conditionalFormatting sqref="B1 B3:B6">
-    <cfRule type="duplicateValues" dxfId="12" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="11" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="10" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="9" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="8" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A12">
-    <cfRule type="duplicateValues" dxfId="7" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C13">
-    <cfRule type="duplicateValues" dxfId="6" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="5" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8463,142 +9211,142 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" s="154" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="155"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>28</v>
+      <c r="B5" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="121" t="s">
-        <v>134</v>
+      <c r="B6" s="117" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="121" t="s">
-        <v>133</v>
+      <c r="B7" s="117" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="121" t="s">
-        <v>132</v>
+      <c r="B8" s="117" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="121" t="s">
-        <v>135</v>
+      <c r="B9" s="117" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="35"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="35"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="35"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="35"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="35"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="11"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="11"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="11"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="11"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8608,27 +9356,27 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="11"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="11"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="11"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="11"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="11"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8638,57 +9386,57 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="11"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="11"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="11"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="11"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="11"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="11"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="11"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="11"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="11"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="11"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8698,7 +9446,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="11"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8708,7 +9456,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="11"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8718,17 +9466,17 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="11"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="11"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="11"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8738,32 +9486,32 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="11"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="11"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="11"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="11"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="11"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="11"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8773,17 +9521,17 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="11"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="11"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="11"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -8803,12 +9551,12 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="11"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="11"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8818,7 +9566,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="11"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8828,7 +9576,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="11"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8838,47 +9586,47 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="11"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="11"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="11"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="11"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="11"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="11"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="11"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="11"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="11"/>
+      <c r="B86" s="10"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -8888,7 +9636,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="11"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8898,27 +9646,27 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="11"/>
+      <c r="B90" s="10"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="11"/>
+      <c r="B91" s="10"/>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="11"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="11"/>
+      <c r="B93" s="10"/>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="11"/>
+      <c r="B94" s="10"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8928,32 +9676,32 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="11"/>
+      <c r="B96" s="10"/>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="11"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="11"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="11"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="11"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="11"/>
+      <c r="B101" s="10"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -8963,22 +9711,22 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="11"/>
+      <c r="B103" s="10"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="11"/>
+      <c r="B104" s="10"/>
       <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-      <c r="B105" s="11"/>
+      <c r="B105" s="10"/>
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
-      <c r="B106" s="11"/>
+      <c r="B106" s="10"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -8988,47 +9736,47 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="B108" s="11"/>
+      <c r="B108" s="10"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
-      <c r="B109" s="11"/>
+      <c r="B109" s="10"/>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
-      <c r="B110" s="11"/>
+      <c r="B110" s="10"/>
       <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
-      <c r="B111" s="11"/>
+      <c r="B111" s="10"/>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
-      <c r="B112" s="11"/>
+      <c r="B112" s="10"/>
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
-      <c r="B113" s="11"/>
+      <c r="B113" s="10"/>
       <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-      <c r="B114" s="11"/>
+      <c r="B114" s="10"/>
       <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
-      <c r="B115" s="11"/>
+      <c r="B115" s="10"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
-      <c r="B116" s="11"/>
+      <c r="B116" s="10"/>
       <c r="C116" s="2"/>
     </row>
   </sheetData>
@@ -9064,7 +9812,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="E1" s="156" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" s="157"/>
       <c r="G1" s="157"/>
@@ -9075,71 +9823,71 @@
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>26</v>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="111">
+      <c r="A6" s="107">
         <v>1</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="111">
+      <c r="A7" s="107">
         <v>2</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="111">
+      <c r="A8" s="107">
         <v>3</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="111">
+      <c r="A9" s="107">
         <v>4</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="111">
+      <c r="A10" s="107">
         <v>5</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="107">
         <v>6</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="111">
+      <c r="A12" s="107">
         <v>7</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="111">
+      <c r="A13" s="107">
         <v>8</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -9189,24 +9937,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G1" s="159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H1" s="159"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>30</v>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="121" t="s">
-        <v>118</v>
+      <c r="B5" s="117" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -9238,38 +9986,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G1" s="160" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="160"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>48</v>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>42580</v>
       </c>
-      <c r="C6" s="120" t="s">
-        <v>129</v>
+      <c r="C6" s="116" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>2</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/EasiCab/Documents/Manage/EASiCab_PROJECT_MONITOR.xlsx
+++ b/trunk/EasiCab/Documents/Manage/EASiCab_PROJECT_MONITOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1665" windowWidth="14805" windowHeight="6450" tabRatio="913" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="1725" windowWidth="14805" windowHeight="6390" tabRatio="913" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INTRODUCTION" sheetId="1" r:id="rId1"/>
@@ -3917,6 +3917,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Formal kick off meeting</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L8" authorId="0">
       <text>
         <r>
@@ -4166,7 +4190,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA11" authorId="0">
+    <comment ref="AC11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rohit</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+REWORK ON Database Doc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6029,7 +6077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC31" authorId="0">
+    <comment ref="AA31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6049,11 +6097,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+4 hours, Rest did R&amp;D on OBD poc.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD31" authorId="0">
+    <comment ref="AB31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6073,7 +6121,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+5 hours, Rest did R&amp;D on OBD poc.</t>
         </r>
       </text>
     </comment>
@@ -8784,6 +8832,29 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8824,36 +8895,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8898,6 +8939,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8907,7 +8978,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8919,43 +8999,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8967,28 +9011,32 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10939,27 +10987,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="223" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -11080,240 +11128,243 @@
       <c r="A11" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="198" t="s">
+      <c r="A12" s="221" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="192" t="s">
+      <c r="B12" s="215" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="194"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="217"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
-      <c r="B13" s="195"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="197"/>
+      <c r="A13" s="222"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="220"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="199"/>
-      <c r="B14" s="192" t="s">
+      <c r="A14" s="222"/>
+      <c r="B14" s="215" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="194"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="217"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="199"/>
-      <c r="B15" s="195"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="197"/>
+      <c r="A15" s="222"/>
+      <c r="B15" s="218"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="220"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="199"/>
-      <c r="B16" s="203" t="s">
+      <c r="A16" s="222"/>
+      <c r="B16" s="202" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="205"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="204"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="199"/>
-      <c r="B17" s="206"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="208"/>
+      <c r="A17" s="222"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="207"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="209" t="s">
+      <c r="B18" s="208" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="210"/>
-      <c r="D18" s="210"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="210"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="202"/>
-      <c r="B19" s="210"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
+      <c r="A19" s="201"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="202"/>
-      <c r="B20" s="203" t="s">
+      <c r="A20" s="201"/>
+      <c r="B20" s="202" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="211"/>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="212"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="211"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="202"/>
-      <c r="B21" s="213"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="215"/>
+      <c r="A21" s="201"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="214"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="202"/>
-      <c r="B22" s="203" t="s">
+      <c r="A22" s="201"/>
+      <c r="B22" s="202" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="205"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="204"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="202"/>
-      <c r="B23" s="206"/>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="208"/>
+      <c r="A23" s="201"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="207"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="202"/>
-      <c r="B24" s="203" t="s">
+      <c r="A24" s="201"/>
+      <c r="B24" s="202" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="212"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="211"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="202"/>
-      <c r="B25" s="213"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="215"/>
+      <c r="A25" s="201"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="214"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="202" t="s">
+      <c r="A26" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="203" t="s">
+      <c r="B26" s="202" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="211"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="212"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="211"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="202"/>
-      <c r="B27" s="213"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="215"/>
+      <c r="A27" s="201"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="214"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="202"/>
-      <c r="B28" s="203" t="s">
+      <c r="A28" s="201"/>
+      <c r="B28" s="202" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="211"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="212"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="211"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="202"/>
-      <c r="B29" s="213"/>
-      <c r="C29" s="214"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="215"/>
+      <c r="A29" s="201"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="214"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="202"/>
-      <c r="B30" s="203" t="s">
+      <c r="A30" s="201"/>
+      <c r="B30" s="202" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="205"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="204"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="202"/>
-      <c r="B31" s="206"/>
-      <c r="C31" s="207"/>
-      <c r="D31" s="207"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="208"/>
+      <c r="A31" s="201"/>
+      <c r="B31" s="205"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="207"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="202" t="s">
+      <c r="A32" s="201" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="203" t="s">
+      <c r="B32" s="202" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="204"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="205"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="204"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="202"/>
-      <c r="B33" s="206"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="207"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="208"/>
+      <c r="A33" s="201"/>
+      <c r="B33" s="205"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="207"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="202"/>
-      <c r="B34" s="203" t="s">
+      <c r="A34" s="201"/>
+      <c r="B34" s="202" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="205"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="204"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="202"/>
-      <c r="B35" s="206"/>
-      <c r="C35" s="207"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="207"/>
-      <c r="F35" s="208"/>
+      <c r="A35" s="201"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:F33"/>
     <mergeCell ref="B34:F35"/>
@@ -11330,9 +11381,6 @@
     <mergeCell ref="B16:F17"/>
     <mergeCell ref="B14:F15"/>
     <mergeCell ref="B12:F13"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11351,35 +11399,35 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H1" s="216" t="s">
+      <c r="H1" s="225" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="226" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="217"/>
+      <c r="C4" s="226"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="218"/>
+      <c r="C5" s="227"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="218"/>
+      <c r="C6" s="227"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="227" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="218"/>
+      <c r="C7" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11418,13 +11466,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="234" t="s">
+      <c r="G1" s="240" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
     </row>
     <row r="3" spans="2:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="64" t="s">
@@ -11432,26 +11480,26 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="235" t="s">
+      <c r="B5" s="239" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235" t="s">
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="235"/>
-      <c r="K5" s="235"/>
-      <c r="M5" s="235" t="s">
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="M5" s="239" t="s">
         <v>132</v>
       </c>
-      <c r="N5" s="235"/>
-      <c r="O5" s="235"/>
-      <c r="P5" s="235"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="239"/>
+      <c r="P5" s="239"/>
       <c r="Q5" s="236" t="s">
         <v>133</v>
       </c>
@@ -11460,184 +11508,184 @@
       <c r="T5" s="238"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
       <c r="P6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="226"/>
-      <c r="R6" s="227"/>
-      <c r="S6" s="228"/>
+      <c r="Q6" s="245"/>
+      <c r="R6" s="246"/>
+      <c r="S6" s="247"/>
       <c r="T6" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="224" t="s">
+      <c r="B7" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
       <c r="F7" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="225" t="s">
+      <c r="G7" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
       <c r="K7" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="229" t="s">
+      <c r="M7" s="231" t="s">
         <v>134</v>
       </c>
-      <c r="N7" s="229"/>
-      <c r="O7" s="229"/>
+      <c r="N7" s="231"/>
+      <c r="O7" s="231"/>
       <c r="P7" s="54"/>
-      <c r="Q7" s="229" t="s">
+      <c r="Q7" s="231" t="s">
         <v>134</v>
       </c>
-      <c r="R7" s="229"/>
-      <c r="S7" s="229"/>
+      <c r="R7" s="231"/>
+      <c r="S7" s="231"/>
       <c r="T7" s="54"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="232"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="230"/>
       <c r="F8" s="47"/>
-      <c r="G8" s="230" t="s">
+      <c r="G8" s="228" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="232"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="230"/>
       <c r="K8" s="47"/>
-      <c r="M8" s="230" t="s">
+      <c r="M8" s="228" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="231"/>
-      <c r="O8" s="232"/>
+      <c r="N8" s="229"/>
+      <c r="O8" s="230"/>
       <c r="P8" s="54"/>
-      <c r="Q8" s="230" t="s">
+      <c r="Q8" s="228" t="s">
         <v>135</v>
       </c>
-      <c r="R8" s="231"/>
-      <c r="S8" s="232"/>
+      <c r="R8" s="229"/>
+      <c r="S8" s="230"/>
       <c r="T8" s="54"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="229" t="s">
+      <c r="B9" s="231" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
       <c r="F9" s="47"/>
-      <c r="G9" s="220" t="s">
+      <c r="G9" s="232" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="221"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="222"/>
+      <c r="H9" s="233"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="234"/>
       <c r="K9" s="47"/>
-      <c r="M9" s="220" t="s">
+      <c r="M9" s="232" t="s">
         <v>136</v>
       </c>
-      <c r="N9" s="221"/>
-      <c r="O9" s="222"/>
+      <c r="N9" s="233"/>
+      <c r="O9" s="234"/>
       <c r="P9" s="54"/>
-      <c r="Q9" s="220" t="s">
+      <c r="Q9" s="232" t="s">
         <v>136</v>
       </c>
-      <c r="R9" s="221"/>
-      <c r="S9" s="222"/>
+      <c r="R9" s="233"/>
+      <c r="S9" s="234"/>
       <c r="T9" s="53"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="231" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="229"/>
-      <c r="D10" s="229"/>
-      <c r="E10" s="229"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
       <c r="F10" s="48"/>
-      <c r="G10" s="229" t="s">
+      <c r="G10" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="229"/>
-      <c r="I10" s="229"/>
-      <c r="J10" s="229"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="231"/>
       <c r="K10" s="49"/>
-      <c r="M10" s="233" t="s">
+      <c r="M10" s="235" t="s">
         <v>97</v>
       </c>
-      <c r="N10" s="233"/>
-      <c r="O10" s="233"/>
+      <c r="N10" s="235"/>
+      <c r="O10" s="235"/>
       <c r="P10" s="54">
         <f>SUM(P7:P9)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="233" t="s">
+      <c r="Q10" s="235" t="s">
         <v>97</v>
       </c>
-      <c r="R10" s="233"/>
-      <c r="S10" s="233"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
       <c r="T10" s="53"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="229" t="s">
+      <c r="B11" s="231" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="229"/>
-      <c r="D11" s="229"/>
-      <c r="E11" s="229"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
       <c r="F11" s="48"/>
-      <c r="G11" s="229" t="s">
+      <c r="G11" s="231" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="229"/>
-      <c r="I11" s="229"/>
-      <c r="J11" s="229"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="231"/>
+      <c r="J11" s="231"/>
       <c r="K11" s="48"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="229" t="s">
+      <c r="B12" s="231" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="229"/>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
+      <c r="C12" s="231"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="231"/>
       <c r="F12" s="47"/>
-      <c r="G12" s="229" t="s">
+      <c r="G12" s="231" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="229"/>
-      <c r="I12" s="229"/>
-      <c r="J12" s="229"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="231"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="229"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="229"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="231"/>
       <c r="F13" s="47"/>
-      <c r="G13" s="229" t="s">
+      <c r="G13" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="229"/>
-      <c r="I13" s="229"/>
-      <c r="J13" s="229"/>
+      <c r="H13" s="231"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="231"/>
       <c r="K13" s="47"/>
       <c r="M13" s="236" t="s">
         <v>96</v>
@@ -11647,44 +11695,44 @@
       <c r="P13" s="238"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="230" t="s">
+      <c r="B14" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="231"/>
-      <c r="D14" s="231"/>
-      <c r="E14" s="232"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="230"/>
       <c r="F14" s="47"/>
-      <c r="G14" s="230" t="s">
+      <c r="G14" s="228" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="231"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="232"/>
+      <c r="H14" s="229"/>
+      <c r="I14" s="229"/>
+      <c r="J14" s="230"/>
       <c r="K14" s="47"/>
       <c r="P14" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="243" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="219"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="219"/>
+      <c r="C15" s="243"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="243"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="219" t="s">
+      <c r="G15" s="243" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="219"/>
+      <c r="H15" s="243"/>
+      <c r="I15" s="243"/>
+      <c r="J15" s="243"/>
       <c r="K15" s="55"/>
-      <c r="M15" s="229" t="s">
+      <c r="M15" s="231" t="s">
         <v>134</v>
       </c>
-      <c r="N15" s="229"/>
-      <c r="O15" s="230"/>
+      <c r="N15" s="231"/>
+      <c r="O15" s="228"/>
       <c r="P15" s="54"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -11698,11 +11746,11 @@
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
-      <c r="M16" s="229" t="s">
+      <c r="M16" s="231" t="s">
         <v>134</v>
       </c>
-      <c r="N16" s="229"/>
-      <c r="O16" s="230"/>
+      <c r="N16" s="231"/>
+      <c r="O16" s="228"/>
       <c r="P16" s="54"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -11716,313 +11764,349 @@
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
-      <c r="M17" s="220" t="s">
+      <c r="M17" s="232" t="s">
         <v>136</v>
       </c>
-      <c r="N17" s="221"/>
-      <c r="O17" s="222"/>
+      <c r="N17" s="233"/>
+      <c r="O17" s="234"/>
       <c r="P17" s="53"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="224" t="s">
+      <c r="B18" s="241" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="224"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
       <c r="F18" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="225" t="s">
+      <c r="G18" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="225"/>
-      <c r="I18" s="225"/>
-      <c r="J18" s="225"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
       <c r="K18" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="233" t="s">
+      <c r="M18" s="235" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="233"/>
-      <c r="O18" s="233"/>
+      <c r="N18" s="235"/>
+      <c r="O18" s="235"/>
       <c r="P18" s="54">
         <f>SUM(P15:P17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="232" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="222"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="234"/>
       <c r="F19" s="47"/>
-      <c r="G19" s="220" t="s">
+      <c r="G19" s="232" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="222"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="234"/>
       <c r="K19" s="47"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="220" t="s">
+      <c r="B20" s="232" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="222"/>
+      <c r="C20" s="233"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="234"/>
       <c r="F20" s="47"/>
-      <c r="G20" s="220" t="s">
+      <c r="G20" s="232" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="222"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="234"/>
       <c r="K20" s="47"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="220" t="s">
+      <c r="B21" s="232" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="222"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="234"/>
       <c r="F21" s="39"/>
-      <c r="G21" s="220" t="s">
+      <c r="G21" s="232" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="222"/>
+      <c r="H21" s="233"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="234"/>
       <c r="K21" s="47"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="220" t="s">
+      <c r="B22" s="232" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="221"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="222"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234"/>
       <c r="F22" s="47"/>
-      <c r="G22" s="220" t="s">
+      <c r="G22" s="232" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="221"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="222"/>
+      <c r="H22" s="233"/>
+      <c r="I22" s="233"/>
+      <c r="J22" s="234"/>
       <c r="K22" s="47"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="220" t="s">
+      <c r="B23" s="232" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="221"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="222"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
       <c r="F23" s="47"/>
-      <c r="G23" s="220" t="s">
+      <c r="G23" s="232" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="221"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="222"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="234"/>
       <c r="K23" s="47"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="223"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="244"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="220" t="s">
+      <c r="G24" s="232" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="222"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="234"/>
       <c r="K24" s="47"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="219" t="s">
+      <c r="B25" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="219"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="219"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="243"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="219" t="s">
+      <c r="G25" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
+      <c r="H25" s="243"/>
+      <c r="I25" s="243"/>
+      <c r="J25" s="243"/>
       <c r="K25" s="56"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="224" t="s">
+      <c r="B27" s="241" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="224"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="224"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="241"/>
       <c r="F27" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="225" t="s">
+      <c r="G27" s="242" t="s">
         <v>184</v>
       </c>
-      <c r="H27" s="225"/>
-      <c r="I27" s="225"/>
-      <c r="J27" s="225"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="242"/>
       <c r="K27" s="69" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:16" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="220" t="s">
+      <c r="B28" s="232" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="221"/>
-      <c r="D28" s="221"/>
-      <c r="E28" s="222"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="234"/>
       <c r="F28" s="73"/>
-      <c r="G28" s="220" t="s">
+      <c r="G28" s="232" t="s">
         <v>187</v>
       </c>
-      <c r="H28" s="221"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="222"/>
+      <c r="H28" s="233"/>
+      <c r="I28" s="233"/>
+      <c r="J28" s="234"/>
       <c r="K28" s="74"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="220" t="s">
+      <c r="B29" s="232" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="221"/>
-      <c r="D29" s="221"/>
-      <c r="E29" s="222"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="234"/>
       <c r="F29" s="63"/>
-      <c r="G29" s="220" t="s">
+      <c r="G29" s="232" t="s">
         <v>189</v>
       </c>
-      <c r="H29" s="221"/>
-      <c r="I29" s="221"/>
-      <c r="J29" s="222"/>
+      <c r="H29" s="233"/>
+      <c r="I29" s="233"/>
+      <c r="J29" s="234"/>
       <c r="K29" s="63"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="220" t="s">
+      <c r="B30" s="232" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="221"/>
-      <c r="D30" s="221"/>
-      <c r="E30" s="222"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234"/>
       <c r="F30" s="63"/>
-      <c r="G30" s="220" t="s">
+      <c r="G30" s="232" t="s">
         <v>191</v>
       </c>
-      <c r="H30" s="221"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="222"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="233"/>
+      <c r="J30" s="234"/>
       <c r="K30" s="63"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="220" t="s">
+      <c r="B31" s="232" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="221"/>
-      <c r="D31" s="221"/>
-      <c r="E31" s="222"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="234"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="220" t="s">
+      <c r="G31" s="232" t="s">
         <v>193</v>
       </c>
-      <c r="H31" s="221"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="222"/>
+      <c r="H31" s="233"/>
+      <c r="I31" s="233"/>
+      <c r="J31" s="234"/>
       <c r="K31" s="63"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="220" t="s">
+      <c r="B32" s="232" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="222"/>
+      <c r="C32" s="233"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="234"/>
       <c r="F32" s="63"/>
-      <c r="G32" s="220" t="s">
+      <c r="G32" s="232" t="s">
         <v>195</v>
       </c>
-      <c r="H32" s="221"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="222"/>
+      <c r="H32" s="233"/>
+      <c r="I32" s="233"/>
+      <c r="J32" s="234"/>
       <c r="K32" s="63"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="232" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="221"/>
-      <c r="D33" s="221"/>
-      <c r="E33" s="222"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="234"/>
       <c r="F33" s="63"/>
-      <c r="G33" s="220" t="s">
+      <c r="G33" s="232" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="221"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="222"/>
+      <c r="H33" s="233"/>
+      <c r="I33" s="233"/>
+      <c r="J33" s="234"/>
       <c r="K33" s="63"/>
       <c r="L33" s="30"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="223"/>
-      <c r="C34" s="223"/>
-      <c r="D34" s="223"/>
-      <c r="E34" s="223"/>
+      <c r="B34" s="244"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="244"/>
+      <c r="E34" s="244"/>
       <c r="F34" s="38"/>
-      <c r="G34" s="220" t="s">
+      <c r="G34" s="232" t="s">
         <v>85</v>
       </c>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="222"/>
+      <c r="H34" s="233"/>
+      <c r="I34" s="233"/>
+      <c r="J34" s="234"/>
       <c r="K34" s="63"/>
       <c r="L34" s="30"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="219" t="s">
+      <c r="B35" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="219"/>
-      <c r="D35" s="219"/>
-      <c r="E35" s="219"/>
+      <c r="C35" s="243"/>
+      <c r="D35" s="243"/>
+      <c r="E35" s="243"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="219" t="s">
+      <c r="G35" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
+      <c r="H35" s="243"/>
+      <c r="I35" s="243"/>
+      <c r="J35" s="243"/>
       <c r="K35" s="56"/>
       <c r="L35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:K5"/>
     <mergeCell ref="M5:P5"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="M7:O7"/>
@@ -12039,52 +12123,16 @@
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12227,42 +12275,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:289" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="187" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
       <c r="M1" s="107"/>
-      <c r="N1" s="179" t="s">
+      <c r="N1" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
       <c r="Q1" s="108"/>
-      <c r="R1" s="179" t="s">
+      <c r="R1" s="188" t="s">
         <v>202</v>
       </c>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="U1" s="179"/>
-      <c r="V1" s="179"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
       <c r="W1" s="109"/>
-      <c r="X1" s="179" t="s">
+      <c r="X1" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="Y1" s="179"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="179"/>
-      <c r="AB1" s="179"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="188"/>
+      <c r="AB1" s="188"/>
       <c r="AC1" s="98"/>
       <c r="AD1" s="98"/>
       <c r="AE1" s="98"/>
@@ -12312,32 +12360,32 @@
       <c r="BU1" s="98"/>
     </row>
     <row r="2" spans="1:289" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="178"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
       <c r="M2" s="110"/>
-      <c r="N2" s="179" t="s">
+      <c r="N2" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
       <c r="Q2" s="101"/>
-      <c r="R2" s="179" t="s">
+      <c r="R2" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="179"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
       <c r="W2" s="111"/>
       <c r="X2" s="98" t="s">
         <v>201</v>
@@ -12400,32 +12448,32 @@
       <c r="BU2" s="98"/>
     </row>
     <row r="3" spans="1:289" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
       <c r="M3" s="112"/>
-      <c r="N3" s="179" t="s">
+      <c r="N3" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
       <c r="Q3" s="105"/>
-      <c r="R3" s="179" t="s">
+      <c r="R3" s="188" t="s">
         <v>219</v>
       </c>
-      <c r="S3" s="179"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
       <c r="W3" s="98"/>
       <c r="X3" s="98"/>
       <c r="Y3" s="98"/>
@@ -37311,8 +37359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KD111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37360,43 +37408,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:290" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="187" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
       <c r="N1" s="107"/>
-      <c r="O1" s="179" t="s">
+      <c r="O1" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
       <c r="R1" s="108"/>
-      <c r="S1" s="179" t="s">
+      <c r="S1" s="188" t="s">
         <v>202</v>
       </c>
-      <c r="T1" s="179"/>
-      <c r="U1" s="179"/>
-      <c r="V1" s="179"/>
-      <c r="W1" s="179"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
       <c r="X1" s="109"/>
-      <c r="Y1" s="179" t="s">
+      <c r="Y1" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="179"/>
-      <c r="AB1" s="179"/>
-      <c r="AC1" s="179"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="188"/>
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="188"/>
       <c r="AD1" s="98"/>
       <c r="AE1" s="98"/>
       <c r="AF1" s="98"/>
@@ -37446,33 +37494,33 @@
       <c r="BV1" s="98"/>
     </row>
     <row r="2" spans="1:290" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="178"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
       <c r="N2" s="110"/>
-      <c r="O2" s="179" t="s">
+      <c r="O2" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
       <c r="R2" s="101"/>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
       <c r="X2" s="111"/>
       <c r="Y2" s="98" t="s">
         <v>201</v>
@@ -37535,33 +37583,33 @@
       <c r="BV2" s="98"/>
     </row>
     <row r="3" spans="1:290" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
       <c r="N3" s="112"/>
-      <c r="O3" s="179" t="s">
+      <c r="O3" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
       <c r="R3" s="105"/>
-      <c r="S3" s="179" t="s">
+      <c r="S3" s="188" t="s">
         <v>219</v>
       </c>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
       <c r="X3" s="98"/>
       <c r="Y3" s="98"/>
       <c r="Z3" s="98"/>
@@ -37915,7 +37963,7 @@
       <c r="BT5" s="93">
         <v>42643</v>
       </c>
-      <c r="BU5" s="239">
+      <c r="BU5" s="178">
         <v>42644</v>
       </c>
       <c r="BV5" s="94">
@@ -38169,7 +38217,6 @@
       <c r="Z6" s="141"/>
       <c r="AA6" s="132"/>
       <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
       <c r="AD6" s="132"/>
       <c r="AE6" s="141"/>
       <c r="AF6" s="141"/>
@@ -38213,7 +38260,7 @@
       <c r="BR6" s="102"/>
       <c r="BS6" s="102"/>
       <c r="BT6" s="102"/>
-      <c r="BU6" s="240"/>
+      <c r="BU6" s="179"/>
       <c r="BV6" s="143"/>
       <c r="BW6" s="2"/>
       <c r="BX6" s="2"/>
@@ -38463,7 +38510,7 @@
       <c r="Z7" s="142"/>
       <c r="AA7" s="125"/>
       <c r="AB7" s="125"/>
-      <c r="AC7" s="125"/>
+      <c r="AC7" s="153"/>
       <c r="AD7" s="125"/>
       <c r="AE7" s="142"/>
       <c r="AF7" s="142"/>
@@ -38507,7 +38554,7 @@
       <c r="BR7" s="125"/>
       <c r="BS7" s="125"/>
       <c r="BT7" s="125"/>
-      <c r="BU7" s="241"/>
+      <c r="BU7" s="180"/>
       <c r="BV7" s="142"/>
       <c r="BW7" s="2"/>
       <c r="BX7" s="2"/>
@@ -38816,7 +38863,7 @@
       <c r="BR8" s="83"/>
       <c r="BS8" s="83"/>
       <c r="BT8" s="83"/>
-      <c r="BU8" s="240"/>
+      <c r="BU8" s="179"/>
       <c r="BV8" s="143"/>
       <c r="BW8" s="2"/>
       <c r="BX8" s="2"/>
@@ -39116,7 +39163,7 @@
       <c r="BR9" s="83"/>
       <c r="BS9" s="83"/>
       <c r="BT9" s="83"/>
-      <c r="BU9" s="240"/>
+      <c r="BU9" s="179"/>
       <c r="BV9" s="143"/>
       <c r="BW9" s="2"/>
       <c r="BX9" s="2"/>
@@ -39422,7 +39469,7 @@
       <c r="BR10" s="83"/>
       <c r="BS10" s="83"/>
       <c r="BT10" s="83"/>
-      <c r="BU10" s="240"/>
+      <c r="BU10" s="179"/>
       <c r="BV10" s="143"/>
       <c r="BW10" s="2"/>
       <c r="BX10" s="2"/>
@@ -39675,12 +39722,13 @@
       <c r="X11" s="143"/>
       <c r="Y11" s="143"/>
       <c r="Z11" s="143"/>
-      <c r="AA11" s="105">
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="105">
         <v>2</v>
       </c>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
+      <c r="AD11" s="105">
+        <v>2</v>
+      </c>
       <c r="AE11" s="143"/>
       <c r="AF11" s="143"/>
       <c r="AG11" s="83"/>
@@ -39723,7 +39771,7 @@
       <c r="BR11" s="83"/>
       <c r="BS11" s="83"/>
       <c r="BT11" s="83"/>
-      <c r="BU11" s="240"/>
+      <c r="BU11" s="179"/>
       <c r="BV11" s="143"/>
       <c r="BW11" s="2"/>
       <c r="BX11" s="2"/>
@@ -40034,7 +40082,7 @@
       <c r="BR12" s="83"/>
       <c r="BS12" s="83"/>
       <c r="BT12" s="83"/>
-      <c r="BU12" s="240"/>
+      <c r="BU12" s="179"/>
       <c r="BV12" s="143"/>
       <c r="BW12" s="2"/>
       <c r="BX12" s="2"/>
@@ -40341,7 +40389,7 @@
       <c r="BR13" s="83"/>
       <c r="BS13" s="83"/>
       <c r="BT13" s="83"/>
-      <c r="BU13" s="240"/>
+      <c r="BU13" s="179"/>
       <c r="BV13" s="143"/>
       <c r="BW13" s="2"/>
       <c r="BX13" s="2"/>
@@ -40560,7 +40608,7 @@
       <c r="KC13" s="2"/>
       <c r="KD13" s="2"/>
     </row>
-    <row r="14" spans="1:290" s="247" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:290" s="186" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="128" t="s">
         <v>218</v>
       </c>
@@ -40635,7 +40683,7 @@
       <c r="BR14" s="128"/>
       <c r="BS14" s="128"/>
       <c r="BT14" s="128"/>
-      <c r="BU14" s="242"/>
+      <c r="BU14" s="181"/>
       <c r="BV14" s="128"/>
       <c r="BW14" s="2"/>
       <c r="BX14" s="2"/>
@@ -40948,7 +40996,7 @@
       <c r="BR15" s="102"/>
       <c r="BS15" s="102"/>
       <c r="BT15" s="102"/>
-      <c r="BU15" s="240"/>
+      <c r="BU15" s="179"/>
       <c r="BV15" s="143"/>
       <c r="BW15" s="2"/>
       <c r="BX15" s="2"/>
@@ -41245,7 +41293,7 @@
       <c r="BR16" s="102"/>
       <c r="BS16" s="102"/>
       <c r="BT16" s="102"/>
-      <c r="BU16" s="240"/>
+      <c r="BU16" s="179"/>
       <c r="BV16" s="143"/>
       <c r="BW16" s="2"/>
       <c r="BX16" s="2"/>
@@ -41555,7 +41603,7 @@
       <c r="BR17" s="102"/>
       <c r="BS17" s="102"/>
       <c r="BT17" s="102"/>
-      <c r="BU17" s="240"/>
+      <c r="BU17" s="179"/>
       <c r="BV17" s="143"/>
       <c r="BW17" s="2"/>
       <c r="BX17" s="2"/>
@@ -41854,7 +41902,7 @@
       <c r="BR18" s="102"/>
       <c r="BS18" s="102"/>
       <c r="BT18" s="102"/>
-      <c r="BU18" s="240"/>
+      <c r="BU18" s="179"/>
       <c r="BV18" s="143"/>
       <c r="BW18" s="2"/>
       <c r="BX18" s="2"/>
@@ -42172,7 +42220,7 @@
       <c r="BR19" s="102"/>
       <c r="BS19" s="102"/>
       <c r="BT19" s="102"/>
-      <c r="BU19" s="240"/>
+      <c r="BU19" s="179"/>
       <c r="BV19" s="143"/>
       <c r="BW19" s="2"/>
       <c r="BX19" s="2"/>
@@ -42474,7 +42522,7 @@
       <c r="BR20" s="102"/>
       <c r="BS20" s="102"/>
       <c r="BT20" s="102"/>
-      <c r="BU20" s="240"/>
+      <c r="BU20" s="179"/>
       <c r="BV20" s="143"/>
       <c r="BW20" s="2"/>
       <c r="BX20" s="2"/>
@@ -42790,7 +42838,7 @@
       <c r="BR21" s="102"/>
       <c r="BS21" s="102"/>
       <c r="BT21" s="102"/>
-      <c r="BU21" s="240"/>
+      <c r="BU21" s="179"/>
       <c r="BV21" s="143"/>
       <c r="BW21" s="2"/>
       <c r="BX21" s="2"/>
@@ -43092,7 +43140,7 @@
       <c r="BR22" s="102"/>
       <c r="BS22" s="102"/>
       <c r="BT22" s="102"/>
-      <c r="BU22" s="240"/>
+      <c r="BU22" s="179"/>
       <c r="BV22" s="143"/>
       <c r="BW22" s="2"/>
       <c r="BX22" s="2"/>
@@ -43402,7 +43450,7 @@
       <c r="BR23" s="102"/>
       <c r="BS23" s="102"/>
       <c r="BT23" s="102"/>
-      <c r="BU23" s="240"/>
+      <c r="BU23" s="179"/>
       <c r="BV23" s="143"/>
       <c r="BW23" s="2"/>
       <c r="BX23" s="2"/>
@@ -43702,7 +43750,7 @@
       <c r="BR24" s="102"/>
       <c r="BS24" s="102"/>
       <c r="BT24" s="102"/>
-      <c r="BU24" s="240"/>
+      <c r="BU24" s="179"/>
       <c r="BV24" s="143"/>
       <c r="BW24" s="2"/>
       <c r="BX24" s="2"/>
@@ -44002,7 +44050,7 @@
       <c r="BR25" s="102"/>
       <c r="BS25" s="102"/>
       <c r="BT25" s="102"/>
-      <c r="BU25" s="240"/>
+      <c r="BU25" s="179"/>
       <c r="BV25" s="143"/>
       <c r="BW25" s="2"/>
       <c r="BX25" s="2"/>
@@ -44221,7 +44269,7 @@
       <c r="KC25" s="2"/>
       <c r="KD25" s="2"/>
     </row>
-    <row r="26" spans="1:290" s="247" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:290" s="186" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A26" s="128" t="s">
         <v>209</v>
       </c>
@@ -44296,7 +44344,7 @@
       <c r="BR26" s="128"/>
       <c r="BS26" s="128"/>
       <c r="BT26" s="128"/>
-      <c r="BU26" s="242"/>
+      <c r="BU26" s="181"/>
       <c r="BV26" s="128"/>
       <c r="BW26" s="2"/>
       <c r="BX26" s="2"/>
@@ -44594,7 +44642,7 @@
       <c r="BR27" s="83"/>
       <c r="BS27" s="83"/>
       <c r="BT27" s="83"/>
-      <c r="BU27" s="240"/>
+      <c r="BU27" s="179"/>
       <c r="BV27" s="143"/>
       <c r="BW27" s="2"/>
       <c r="BX27" s="2"/>
@@ -44891,7 +44939,7 @@
       <c r="BR28" s="85"/>
       <c r="BS28" s="85"/>
       <c r="BT28" s="85"/>
-      <c r="BU28" s="243"/>
+      <c r="BU28" s="182"/>
       <c r="BV28" s="143"/>
       <c r="BW28" s="2"/>
       <c r="BX28" s="2"/>
@@ -45193,7 +45241,7 @@
       <c r="BR29" s="83"/>
       <c r="BS29" s="83"/>
       <c r="BT29" s="83"/>
-      <c r="BU29" s="240"/>
+      <c r="BU29" s="179"/>
       <c r="BV29" s="143"/>
       <c r="BW29" s="2"/>
       <c r="BX29" s="2"/>
@@ -45489,7 +45537,7 @@
       <c r="BR30" s="92"/>
       <c r="BS30" s="92"/>
       <c r="BT30" s="92"/>
-      <c r="BU30" s="244"/>
+      <c r="BU30" s="183"/>
       <c r="BV30" s="143"/>
       <c r="BW30" s="2"/>
       <c r="BX30" s="2"/>
@@ -45741,13 +45789,14 @@
       <c r="X31" s="107"/>
       <c r="Y31" s="107"/>
       <c r="Z31" s="107"/>
-      <c r="AB31" s="98"/>
-      <c r="AC31" s="80">
+      <c r="AA31" s="80">
         <v>2</v>
       </c>
-      <c r="AD31" s="80">
+      <c r="AB31" s="80">
         <v>2</v>
       </c>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
       <c r="AE31" s="107"/>
       <c r="AF31" s="107"/>
       <c r="AG31" s="80">
@@ -45790,7 +45839,7 @@
       <c r="BR31" s="98"/>
       <c r="BS31" s="98"/>
       <c r="BT31" s="98"/>
-      <c r="BU31" s="245"/>
+      <c r="BU31" s="184"/>
       <c r="BV31" s="107"/>
     </row>
     <row r="32" spans="1:290" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -45874,7 +45923,7 @@
       <c r="BR32" s="98"/>
       <c r="BS32" s="98"/>
       <c r="BT32" s="98"/>
-      <c r="BU32" s="245"/>
+      <c r="BU32" s="184"/>
       <c r="BV32" s="107"/>
     </row>
     <row r="33" spans="1:290" s="78" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -45963,7 +46012,7 @@
       <c r="BR33" s="88"/>
       <c r="BS33" s="88"/>
       <c r="BT33" s="88"/>
-      <c r="BU33" s="241"/>
+      <c r="BU33" s="180"/>
       <c r="BV33" s="142"/>
       <c r="BW33" s="2"/>
       <c r="BX33" s="2"/>
@@ -46264,7 +46313,7 @@
       <c r="BR34" s="88"/>
       <c r="BS34" s="88"/>
       <c r="BT34" s="88"/>
-      <c r="BU34" s="241"/>
+      <c r="BU34" s="180"/>
       <c r="BV34" s="142"/>
       <c r="BW34" s="2"/>
       <c r="BX34" s="2"/>
@@ -46570,7 +46619,7 @@
       <c r="BR35" s="98"/>
       <c r="BS35" s="98"/>
       <c r="BT35" s="98"/>
-      <c r="BU35" s="245"/>
+      <c r="BU35" s="184"/>
       <c r="BV35" s="107"/>
     </row>
     <row r="36" spans="1:290" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -46654,7 +46703,7 @@
       <c r="BR36" s="103"/>
       <c r="BS36" s="103"/>
       <c r="BT36" s="103"/>
-      <c r="BU36" s="246"/>
+      <c r="BU36" s="185"/>
       <c r="BV36" s="107"/>
     </row>
     <row r="37" spans="1:290" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -46744,7 +46793,7 @@
       <c r="BR37" s="103"/>
       <c r="BS37" s="103"/>
       <c r="BT37" s="103"/>
-      <c r="BU37" s="246"/>
+      <c r="BU37" s="185"/>
       <c r="BV37" s="107"/>
     </row>
     <row r="38" spans="1:290" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -46828,7 +46877,7 @@
       <c r="BR38" s="103"/>
       <c r="BS38" s="103"/>
       <c r="BT38" s="103"/>
-      <c r="BU38" s="246"/>
+      <c r="BU38" s="185"/>
       <c r="BV38" s="107"/>
     </row>
     <row r="39" spans="1:290" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46918,7 +46967,7 @@
       <c r="BR39" s="103"/>
       <c r="BS39" s="103"/>
       <c r="BT39" s="103"/>
-      <c r="BU39" s="246"/>
+      <c r="BU39" s="185"/>
       <c r="BV39" s="96"/>
     </row>
     <row r="40" spans="1:290" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47008,7 +47057,7 @@
       <c r="BT40" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="BU40" s="245"/>
+      <c r="BU40" s="184"/>
       <c r="BV40" s="107"/>
     </row>
     <row r="41" spans="1:290" x14ac:dyDescent="0.25">
@@ -62477,14 +62526,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="S1:W1"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="S3:W3"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="S1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -62516,10 +62565,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="189" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="67" t="s">
@@ -62548,8 +62597,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180"/>
-      <c r="B2" s="180"/>
+      <c r="A2" s="189"/>
+      <c r="B2" s="189"/>
       <c r="C2" s="4" t="s">
         <v>171</v>
       </c>
@@ -62649,10 +62698,10 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="184"/>
+      <c r="B8" s="193"/>
       <c r="C8" s="23" t="s">
         <v>46</v>
       </c>
@@ -62707,10 +62756,10 @@
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="182"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="24" t="e">
         <f>TEAM_STRUCTURE!E24=C10+C11+D16C13</f>
         <v>#NAME?</v>
@@ -62783,10 +62832,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="185" t="s">
+      <c r="E1" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="186"/>
+      <c r="F1" s="195"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -63384,13 +63433,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="E1" s="187" t="s">
+      <c r="E1" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="189"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="198"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -63509,10 +63558,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G1" s="190" t="s">
+      <c r="G1" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="190"/>
+      <c r="H1" s="199"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -63558,10 +63607,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G1" s="191" t="s">
+      <c r="G1" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="191"/>
+      <c r="H1" s="200"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
